--- a/data/trans_orig/P36B01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942E37E7-3DBC-4CED-9EEB-6097981D991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B85144-1F15-464C-ADA6-995BC3D42BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D76BB6-2447-4C08-B443-55DF91C363AC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{571DA508-7D0D-45B5-9F80-07C352B8F989}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,307 +137,307 @@
     <t>95,42%</t>
   </si>
   <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C67FCE0-FEC3-4DC7-9746-FB9BAE1EF362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53355673-0A2B-496C-9E22-03C34771791B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1149,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
@@ -1161,10 +1161,10 @@
         <v>879660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>39</v>
@@ -1203,7 +1203,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -1212,13 +1212,13 @@
         <v>44788</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>1292</v>
@@ -1316,13 +1316,13 @@
         <v>1064451</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,13 +1337,13 @@
         <v>37745</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -1352,13 +1352,13 @@
         <v>35614</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -1367,13 +1367,13 @@
         <v>73359</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1441,13 +1441,13 @@
         <v>683814</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1080</v>
@@ -1456,13 +1456,13 @@
         <v>711971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1702</v>
@@ -1471,13 +1471,13 @@
         <v>1395785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1492,13 @@
         <v>36763</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -1507,13 +1507,13 @@
         <v>34070</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -1522,13 +1522,13 @@
         <v>70833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1596,13 @@
         <v>573861</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>959</v>
@@ -1611,13 +1611,13 @@
         <v>571751</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1593</v>
@@ -1626,13 +1626,13 @@
         <v>1145612</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>22975</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -1662,13 +1662,13 @@
         <v>24611</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -1677,13 +1677,13 @@
         <v>47586</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1751,13 @@
         <v>673715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>1643</v>
@@ -1766,13 +1766,13 @@
         <v>992394</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>2635</v>
@@ -1781,13 +1781,13 @@
         <v>1666109</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>22494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
@@ -1820,10 +1820,10 @@
         <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -1832,13 +1832,13 @@
         <v>56737</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>3185</v>
       </c>
       <c r="D22" s="7">
-        <v>3199803</v>
+        <v>3199804</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>118</v>
@@ -2005,7 +2005,7 @@
         <v>3364</v>
       </c>
       <c r="D24" s="7">
-        <v>3368024</v>
+        <v>3368025</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
